--- a/JavaCore/Assignment1/Extra Assignments.xlsx
+++ b/JavaCore/Assignment1/Extra Assignments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/008cd1b8966ec0b0/デスクトップ/Railway-23/JavaCore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/008cd1b8966ec0b0/デスクトップ/Railway-23/JavaCore/Assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{C9673E6C-81D8-4730-BD08-75267594B866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16242961-DD4A-47EF-AFE5-622424DA0657}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{C9673E6C-81D8-4730-BD08-75267594B866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C99778-328C-48B5-B64B-2A618CB5816B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E6D1B00-96E7-4574-89D1-CB5BABF93CD5}"/>
+    <workbookView xWindow="28905" yWindow="60" windowWidth="14445" windowHeight="15465" xr2:uid="{4E6D1B00-96E7-4574-89D1-CB5BABF93CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>Các đối tượng có thể có trong hệ thống</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>1.Đánh giá hoạt động của sinh viên trong câu lạc bộ</t>
+  </si>
+  <si>
+    <t>Số tín chỉ tích lũy</t>
+  </si>
+  <si>
+    <t>Ngày nhập học</t>
+  </si>
+  <si>
+    <t>Ngày ra trường</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Tên khoa</t>
   </si>
 </sst>
 </file>
@@ -243,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +337,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -445,11 +466,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -469,131 +499,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -601,8 +517,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,9 +982,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8A080C-32DA-4D45-94B8-93218F2A6496}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -965,666 +1017,736 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="68"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="68"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="68"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="54"/>
+      <c r="C8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="54"/>
+      <c r="C9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="54"/>
+      <c r="C10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="60" t="s">
+      <c r="E10" s="30"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="54"/>
+      <c r="C11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="55"/>
+      <c r="C12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="68"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="68"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="68"/>
+      <c r="E12" s="30"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="68"/>
+      <c r="B13" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+    <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="57"/>
+      <c r="C14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="30"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="57"/>
+      <c r="C15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="30"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57"/>
+      <c r="C16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="30"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="58"/>
+      <c r="C17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="76"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="71"/>
+      <c r="C19" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="77"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="68" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="59" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="60"/>
+      <c r="C21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="68"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="59" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="30"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="60"/>
+      <c r="C22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="68"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="60" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="30"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
+      <c r="C23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="68"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="30"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C24" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="67" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="59" t="s">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="63"/>
+      <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="68"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="59" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="30"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="63"/>
+      <c r="C26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="59" t="s">
+      <c r="E26" s="30"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="63"/>
+      <c r="C27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="68"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="59" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="30"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="63"/>
+      <c r="C28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="68"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="59" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="30"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="63"/>
+      <c r="C29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="60" t="s">
+      <c r="E29" s="30"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="64"/>
+      <c r="C30" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="E30" s="30"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C31" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="68"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="59" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="30"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="66"/>
+      <c r="C32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="68"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="60" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="30"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="66"/>
+      <c r="C33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="67"/>
+      <c r="C34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="68"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+      <c r="E34" s="30"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="68"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="35"/>
-      <c r="C29" s="60" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="30"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="69"/>
+      <c r="C36" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="68"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="30"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C37" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="68"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="59" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="30"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="43"/>
+      <c r="C38" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="68"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="C32" s="60" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="30"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="44"/>
+      <c r="C39" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="68"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="30"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C40" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="67" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
-      <c r="C34" s="59" t="s">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="46"/>
+      <c r="C41" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="68"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
-      <c r="C35" s="59" t="s">
+      <c r="D41" s="4"/>
+      <c r="E41" s="30"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="46"/>
+      <c r="C42" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
-      <c r="C36" s="59" t="s">
+      <c r="E42" s="30"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="46"/>
+      <c r="C43" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
-      <c r="C37" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="68"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
-      <c r="C38" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="68"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-      <c r="C39" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="68"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="68"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="43"/>
-      <c r="C41" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="68"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="69"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="45"/>
-      <c r="C43" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="69"/>
+      <c r="E43" s="30"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="46"/>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="30"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="46"/>
+      <c r="C45" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="30"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="47"/>
+      <c r="C46" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="30"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="49"/>
+      <c r="C48" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="51"/>
+      <c r="C50" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="52"/>
+      <c r="C51" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="69"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="44" t="s">
+      <c r="D51" s="8"/>
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C52" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="67" t="s">
+      <c r="E52" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
-      <c r="C46" s="59" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="51"/>
+      <c r="C53" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D53" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="67"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
-      <c r="C47" s="59" t="s">
+      <c r="E53" s="29"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="51"/>
+      <c r="C54" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="67"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="46"/>
-      <c r="C48" s="61" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="29"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="52"/>
+      <c r="C55" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="67"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="44" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="29"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C56" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D56" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="69"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="46"/>
-      <c r="C50" s="60" t="s">
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="52"/>
+      <c r="C57" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D57" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="69"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="51" t="s">
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C58" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="69"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="52"/>
-      <c r="C52" s="59" t="s">
+      <c r="D58" s="2"/>
+      <c r="E58" s="28"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="32"/>
+      <c r="C59" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="69"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="52"/>
-      <c r="C53" s="59" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="32"/>
+      <c r="C60" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="69"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="53"/>
-      <c r="C54" s="60" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="33"/>
+      <c r="C61" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="69"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="55" t="s">
+      <c r="D61" s="8"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C62" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="69"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="56"/>
-      <c r="C56" s="59" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="35"/>
+      <c r="C63" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="69"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="56"/>
-      <c r="C57" s="59" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="28"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="35"/>
+      <c r="C64" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="69"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
-      <c r="C58" s="60" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="36"/>
+      <c r="C65" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="69"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="47" t="s">
+      <c r="D65" s="8"/>
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C66" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="69"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="48"/>
-      <c r="C60" s="60" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="28"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="38"/>
+      <c r="C67" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="69"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="64" t="s">
+      <c r="D67" s="8"/>
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C68" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D68" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="69"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="65"/>
-      <c r="C62" s="59" t="s">
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="40"/>
+      <c r="C69" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D69" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="69"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="65"/>
-      <c r="C63" s="59" t="s">
+      <c r="E69" s="28"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="40"/>
+      <c r="C70" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D70" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="69"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="65"/>
-      <c r="C64" s="59" t="s">
+      <c r="E70" s="28"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="40"/>
+      <c r="C71" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="62" t="s">
+      <c r="D71" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="69"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="66"/>
-      <c r="C65" s="60" t="s">
+      <c r="E71" s="28"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="41"/>
+      <c r="C72" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="69"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B29"/>
+  <mergeCells count="33">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="E40:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
